--- a/PPDM_Cookies Categories NameTest Cases_Nupur.xlsx
+++ b/PPDM_Cookies Categories NameTest Cases_Nupur.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaikfahemida\Documents\GitHub\PPDM_Dev_Prototype_Odoo\PPDM_Dev_Prototype_Odoo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59042ED5-AF1A-4CFB-BEFE-A16BA7B41578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="13332" windowHeight="5808"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor" sheetId="9" r:id="rId1"/>
+    <sheet name="Vendor name Data" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -322,13 +329,22 @@
   </si>
   <si>
     <t>should not appeared</t>
+  </si>
+  <si>
+    <t>Records of ${Vendor Name}</t>
+  </si>
+  <si>
+    <t>Vendor name data</t>
+  </si>
+  <si>
+    <t>www.sky.co.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +356,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,10 +418,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -411,18 +436,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -469,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,9 +538,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,6 +590,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,31 +783,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="28.8">
+    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -780,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
@@ -796,7 +869,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" ht="28.8">
+    <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -826,7 +899,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:11" ht="28.8">
+    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -856,7 +929,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11" ht="28.8">
+    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -886,7 +959,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:11" ht="43.2">
+    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
@@ -914,9 +987,9 @@
       <c r="J8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" ht="43.2">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
@@ -946,7 +1019,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" ht="28.8">
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
@@ -976,7 +1049,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11" ht="28.8">
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1006,7 +1079,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" ht="28.8">
+    <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1036,7 +1109,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" ht="28.8">
+    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
@@ -1066,7 +1139,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="28.8">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>87</v>
       </c>
@@ -1095,7 +1168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="43.2">
+    <row r="15" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>93</v>
       </c>
@@ -1105,7 +1178,7 @@
       <c r="D15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -1114,19 +1187,19 @@
       <c r="G15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>98</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="28.8">
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1134,4 +1207,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4DD8F3-83E6-45C7-B9ED-B1BB539A0E03}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{6D3B04D6-B408-481F-A21B-8DD7C45B12A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>